--- a/Bancos/Planilhas/Agendamentos.xlsx
+++ b/Bancos/Planilhas/Agendamentos.xlsx
@@ -1,40 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="planilha" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,25 +45,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -168,7 +247,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,40 +420,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tutor</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Serviço</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Horário</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Joao</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Totó</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tosa</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12h34 30/04</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Bancos/Planilhas/Agendamentos.xlsx
+++ b/Bancos/Planilhas/Agendamentos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,28 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rex</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tosa</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12h30 12/06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bancos/Planilhas/Agendamentos.xlsx
+++ b/Bancos/Planilhas/Agendamentos.xlsx
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Joao</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Totó</t>
+          <t>Rex</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,29 +473,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12h34 30/04</t>
+          <t>12h30 12/06</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Geraldo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rex</t>
+          <t>Poodle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tosa</t>
+          <t>Banho</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12h30 12/06</t>
+          <t>12h34 30/04</t>
         </is>
       </c>
     </row>

--- a/Bancos/Planilhas/Agendamentos.xlsx
+++ b/Bancos/Planilhas/Agendamentos.xlsx
@@ -1,37 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="324" yWindow="540" windowWidth="19836" windowHeight="7092"/>
   </bookViews>
   <sheets>
-    <sheet name="planilha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="planilha" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Tutor</t>
+  </si>
+  <si>
+    <t>PET</t>
+  </si>
+  <si>
+    <t>Serviço</t>
+  </si>
+  <si>
+    <t>Horário</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +63,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,83 +379,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Tutor</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PET</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Serviço</t>
-        </is>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Horário</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Joao</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Totó</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Tosa</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12h34 30/04</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ana</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Rex</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Tosa</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12h30 12/06</t>
-        </is>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bancos/Planilhas/Agendamentos.xlsx
+++ b/Bancos/Planilhas/Agendamentos.xlsx
@@ -1,40 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="planilha" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,25 +45,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -168,7 +247,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,40 +420,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tutor</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Serviço</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Horário</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Bancos/Planilhas/Agendamentos.xlsx
+++ b/Bancos/Planilhas/Agendamentos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,42 +458,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Geraldo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rex</t>
+          <t>Poodle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tosa</t>
+          <t>Banho</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>12h30 12/06</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Geraldo</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Poodle</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Banho</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>12h34 30/04</t>
         </is>
